--- a/Historicos/Historic_final_Daniel Garcia.xlsx
+++ b/Historicos/Historic_final_Daniel Garcia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Historicos/Historic_final_Daniel Garcia.xlsx
+++ b/Historicos/Historic_final_Daniel Garcia.xlsx
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,7 +455,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>time_setup</t>
+          <t>opentime</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +480,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>time_setup2</t>
+          <t>closetime</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -571,8 +570,8 @@
       <c r="M2" t="n">
         <v>-0.65</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>0.2793634259259259</v>
+      <c r="N2" t="n">
+        <v>24137</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
@@ -633,8 +632,8 @@
       <c r="M3" t="n">
         <v>-1</v>
       </c>
-      <c r="N3" s="3" t="n">
-        <v>0.02234953703703704</v>
+      <c r="N3" t="n">
+        <v>1931</v>
       </c>
       <c r="O3" t="n">
         <v>10000</v>
@@ -695,8 +694,8 @@
       <c r="M4" t="n">
         <v>-1.75</v>
       </c>
-      <c r="N4" s="3" t="n">
-        <v>0.0001736111111111111</v>
+      <c r="N4" t="n">
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>10000</v>
@@ -757,8 +756,8 @@
       <c r="M5" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="N5" s="3" t="n">
-        <v>0.01429398148148148</v>
+      <c r="N5" t="n">
+        <v>1235</v>
       </c>
       <c r="O5" t="n">
         <v>10000</v>
@@ -819,8 +818,8 @@
       <c r="M6" t="n">
         <v>11.2</v>
       </c>
-      <c r="N6" s="3" t="n">
-        <v>0.8678356481481482</v>
+      <c r="N6" t="n">
+        <v>74981</v>
       </c>
       <c r="O6" t="n">
         <v>10000</v>
@@ -881,8 +880,8 @@
       <c r="M7" t="n">
         <v>11.2</v>
       </c>
-      <c r="N7" s="3" t="n">
-        <v>0.5507175925925926</v>
+      <c r="N7" t="n">
+        <v>47582</v>
       </c>
       <c r="O7" t="n">
         <v>10000</v>
@@ -943,8 +942,8 @@
       <c r="M8" t="n">
         <v>4.37</v>
       </c>
-      <c r="N8" s="3" t="n">
-        <v>0.104375</v>
+      <c r="N8" t="n">
+        <v>9018</v>
       </c>
       <c r="O8" t="n">
         <v>10000</v>
@@ -1005,8 +1004,8 @@
       <c r="M9" t="n">
         <v>10.6</v>
       </c>
-      <c r="N9" s="3" t="n">
-        <v>0.006481481481481481</v>
+      <c r="N9" t="n">
+        <v>560</v>
       </c>
       <c r="O9" t="n">
         <v>10000</v>
@@ -1067,8 +1066,8 @@
       <c r="M10" t="n">
         <v>28.91</v>
       </c>
-      <c r="N10" s="3" t="n">
-        <v>3.582025462962963</v>
+      <c r="N10" t="n">
+        <v>309487</v>
       </c>
       <c r="O10" t="n">
         <v>10000</v>
@@ -1129,8 +1128,8 @@
       <c r="M11" t="n">
         <v>-8.07</v>
       </c>
-      <c r="N11" s="3" t="n">
-        <v>0.01870370370370371</v>
+      <c r="N11" t="n">
+        <v>1616</v>
       </c>
       <c r="O11" t="n">
         <v>10000</v>
@@ -1191,8 +1190,8 @@
       <c r="M12" t="n">
         <v>-13.5</v>
       </c>
-      <c r="N12" s="3" t="n">
-        <v>0.02196759259259259</v>
+      <c r="N12" t="n">
+        <v>1898</v>
       </c>
       <c r="O12" t="n">
         <v>10000</v>
@@ -1253,8 +1252,8 @@
       <c r="M13" t="n">
         <v>16</v>
       </c>
-      <c r="N13" s="3" t="n">
-        <v>0.02010416666666667</v>
+      <c r="N13" t="n">
+        <v>1737</v>
       </c>
       <c r="O13" t="n">
         <v>10000</v>
@@ -1315,8 +1314,8 @@
       <c r="M14" t="n">
         <v>-18.82</v>
       </c>
-      <c r="N14" s="3" t="n">
-        <v>0.02650462962962963</v>
+      <c r="N14" t="n">
+        <v>2290</v>
       </c>
       <c r="O14" t="n">
         <v>10000</v>

--- a/Historicos/Historic_final_Daniel Garcia.xlsx
+++ b/Historicos/Historic_final_Daniel Garcia.xlsx
@@ -1,40 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>volume_initial</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>closetime</t>
+  </si>
+  <si>
+    <t>second_price</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>pip_size</t>
+  </si>
+  <si>
+    <t>pips</t>
+  </si>
+  <si>
+    <t>pips_acum</t>
+  </si>
+  <si>
+    <t>profit_acum</t>
+  </si>
+  <si>
+    <t>USDCHF</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>0.92745</t>
+  </si>
+  <si>
+    <t>1.17262</t>
+  </si>
+  <si>
+    <t>1.36632</t>
+  </si>
+  <si>
+    <t>1.36566</t>
+  </si>
+  <si>
+    <t>0.92700</t>
+  </si>
+  <si>
+    <t>1.26459</t>
+  </si>
+  <si>
+    <t>1.15872</t>
+  </si>
+  <si>
+    <t>1.24870</t>
+  </si>
+  <si>
+    <t>1.17370</t>
+  </si>
+  <si>
+    <t>1.36570</t>
+  </si>
+  <si>
+    <t>1.37400</t>
+  </si>
+  <si>
+    <t>0.92711</t>
+  </si>
+  <si>
+    <t>1.36190</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +162,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,913 +479,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>position_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>opentime</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume_initial</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sl</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closetime</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>second_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>profit</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tiempo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pip_size</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>pips</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>pips_acum</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>profit_acum</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>45426323</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
         <v>44459.89565972222</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.92805</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.92745</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>44460.17502314815</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.92745</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>-0.65</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>24137</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>10000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-6.000000000000449</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>-6.000000000000449</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>-0.65</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>45427257</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
         <v>44459.94324074074</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.05</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.17282</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.17262</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>1.1729</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>44459.96559027778</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1.17262</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>-1</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1931</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>10000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>-1.99999999999978</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>-8.000000000000229</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>-1.65</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>45442520</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
         <v>44460.67289351852</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.05</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.36665</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.36632</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
         <v>1.36673</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>44460.67306712963</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1.3663</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>-1.75</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>10000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-3.499999999998504</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>-11.49999999999873</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>45442553</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
         <v>44460.67333333333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.01</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.36616</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.36566</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>44460.68762731482</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1.3656</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1235</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>10000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-5.60000000000116</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>-17.09999999999989</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>-3.96</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>45451863</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
         <v>44460.84805555556</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.1726</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.17370</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
         <v>44461.7158912037</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1.17372</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-0.52</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>11.2</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>74981</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>10000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>11.2000000000001</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>-5.899999999999796</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>7.239999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>45478439</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
         <v>44461.90732638889</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.05</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.36346</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.36570</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="n">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
         <v>44462.45804398148</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1.3657</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-0.18</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>11.2</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>47582</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>10000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>22.4000000000002</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>16.5000000000004</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>18.44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>45482940</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
         <v>44462.08790509259</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.05</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.92619</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.92700</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>44462.19228009259</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.927</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>4.37</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>9018</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>10000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>8.100000000000884</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>24.60000000000129</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>22.81</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>45501371</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
         <v>44462.76673611111</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.37294</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1.37400</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="n">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2">
         <v>44462.77321759259</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.374</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>10.6</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>560</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>10000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>10.60000000000061</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>35.20000000000189</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>33.41</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>45502462</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
         <v>44462.79907407407</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.92443</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.92711</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2">
         <v>44466.38109953704</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.92711</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-0.16</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>28.91</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>309487</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>10000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>26.80000000000016</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>62.00000000000205</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>62.31999999999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>45502484</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
         <v>44462.79947916666</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.26559</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1.26459</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>44462.81818287037</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.26457</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>-8.07</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>1616</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>10000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>-10.20000000000021</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>51.80000000000184</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>54.24999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>45709962</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
         <v>44474.65081018519</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.16008</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1.15872</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>44474.67277777778</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1.15873</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>-13.5</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1898</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>10000</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>-13.49999999999962</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>38.30000000000221</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>40.74999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>45711175</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
         <v>44474.68391203704</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.36032</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.36190</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="n">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2">
         <v>44474.7040162037</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1.36192</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>16</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1737</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>10000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>16.00000000000046</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>54.30000000000267</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>56.74999999999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>45786525</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2">
         <v>44477.64667824074</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.251</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1.24870</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>44477.67318287037</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>1.24865</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>-18.82</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>2290</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>10000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-23.49999999999852</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>30.80000000000415</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>37.92999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>